--- a/RegistrationRecord/templates/Temp/RecordList.xlsx
+++ b/RegistrationRecord/templates/Temp/RecordList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>recordid</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>eventsid</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -354,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,6 +380,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RegistrationRecord/templates/Temp/RecordList.xlsx
+++ b/RegistrationRecord/templates/Temp/RecordList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>recordid</t>
   </si>
@@ -25,13 +25,10 @@
     <t>eventsid</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>4</t>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -363,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,21 +382,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
